--- a/biology/Botanique/Ecolette/Ecolette.xlsx
+++ b/biology/Botanique/Ecolette/Ecolette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecolette est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Écolette est une variété enregistrée par l'Union Européenne :
 numéro de référence : 604
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cultivar a été créé à Wageningue, aux Pays-Bas.
 La variété a été diffusée vers 1996.
@@ -575,13 +591,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Utilisation : pomme à couteau
 Peau verte dans la cuvette pédonculaire, jaune puis principalement rouge
 Chair ferme, sucrée et légèrement acide, aromatique
 Calibre moyen, de 70 à 85 mm
-Longueur du pédoncule mi-long[1].</t>
+Longueur du pédoncule mi-long.</t>
         </is>
       </c>
     </row>
@@ -609,9 +627,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme Ecolette résulte du croisement Elstar x Prima [2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme Ecolette résulte du croisement Elstar x Prima .
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété autofertile.
 Groupe de pollinisation : D
@@ -673,7 +695,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une variété facile à cultiver dans un petit jardin, en alignement d'arbres taillés en fuseaux distants d'un mètre seulement.
 Sa résistance génétique à la tavelure permet de réduire le nombre de traitements fongiques, un seul au moment du débourrage peut parfois suffire. Pour un petit jardin familial c'est un avantage incontestable.
